--- a/Excel/Airnegative.xlsx
+++ b/Excel/Airnegative.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="106">
   <si>
     <t>Username</t>
   </si>
@@ -190,6 +190,150 @@
   </si>
   <si>
     <t>CUS101 - ABDUL JAVID</t>
+  </si>
+  <si>
+    <t>Bookingexecutiveinactivedata</t>
+  </si>
+  <si>
+    <t>BU121 - Ms.Comp1 Branch 2 User 1</t>
+  </si>
+  <si>
+    <t>pcc 5444</t>
+  </si>
+  <si>
+    <t>SupplierPCC</t>
+  </si>
+  <si>
+    <t>AatdTicketNumber</t>
+  </si>
+  <si>
+    <t>Fromsector</t>
+  </si>
+  <si>
+    <t>Fromsectorindex</t>
+  </si>
+  <si>
+    <t>Tosector</t>
+  </si>
+  <si>
+    <t>Tosectorindex</t>
+  </si>
+  <si>
+    <t>AUH</t>
+  </si>
+  <si>
+    <t>BLR</t>
+  </si>
+  <si>
+    <t>Publishedfare</t>
+  </si>
+  <si>
+    <t>Sellingfare</t>
+  </si>
+  <si>
+    <t>IncentiveCRC</t>
+  </si>
+  <si>
+    <t>Companycurrency</t>
+  </si>
+  <si>
+    <t>Lodgecard</t>
+  </si>
+  <si>
+    <t>Processtype</t>
+  </si>
+  <si>
+    <t>Processtypeindex</t>
+  </si>
+  <si>
+    <t>AEDName</t>
+  </si>
+  <si>
+    <t>HDFC Card</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>9029093334</t>
+  </si>
+  <si>
+    <t>AtfdIncentivePaid</t>
+  </si>
+  <si>
+    <t>Aatcode</t>
+  </si>
+  <si>
+    <t>Aatcodeindex</t>
+  </si>
+  <si>
+    <t>AatAmount</t>
+  </si>
+  <si>
+    <t>Namee</t>
+  </si>
+  <si>
+    <t>Nameeindex</t>
+  </si>
+  <si>
+    <t>AtscBaseAmount</t>
+  </si>
+  <si>
+    <t>AtfdCommPercent1</t>
+  </si>
+  <si>
+    <t>AtfdCommPercent2</t>
+  </si>
+  <si>
+    <t>Agentincetive</t>
+  </si>
+  <si>
+    <t>Agentincetiveindexx</t>
+  </si>
+  <si>
+    <t>Modeindex</t>
+  </si>
+  <si>
+    <t>Selectedbranch</t>
+  </si>
+  <si>
+    <t>32IGST</t>
+  </si>
+  <si>
+    <t>ARSRV01</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>MR. FIXED AGENT 02</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>AtfdDiscPercent1</t>
+  </si>
+  <si>
+    <t>TravelStatusDN</t>
+  </si>
+  <si>
+    <t>Agentincentive</t>
+  </si>
+  <si>
+    <t>Fopcustomer</t>
+  </si>
+  <si>
+    <t>KWC668_1 -  Glaxo Saudi Arabia Ltd -FAC_1</t>
   </si>
 </sst>
 </file>
@@ -289,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -306,7 +450,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -316,10 +459,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:BK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AI3" sqref="AI3"/>
+    <sheetView tabSelected="1" topLeftCell="BH1" workbookViewId="0">
+      <selection activeCell="BL12" sqref="BL12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -653,9 +807,38 @@
     <col min="30" max="30" width="30.5703125" customWidth="1"/>
     <col min="31" max="31" width="33.42578125" customWidth="1"/>
     <col min="32" max="32" width="31.5703125" customWidth="1"/>
+    <col min="33" max="33" width="38.85546875" customWidth="1"/>
+    <col min="34" max="34" width="17.28515625" customWidth="1"/>
+    <col min="35" max="35" width="21.28515625" customWidth="1"/>
+    <col min="36" max="36" width="13.7109375" customWidth="1"/>
+    <col min="37" max="37" width="22.85546875" customWidth="1"/>
+    <col min="38" max="38" width="15.140625" customWidth="1"/>
+    <col min="39" max="39" width="21.7109375" customWidth="1"/>
+    <col min="40" max="40" width="15.7109375" customWidth="1"/>
+    <col min="41" max="41" width="15.85546875" customWidth="1"/>
+    <col min="42" max="42" width="15.5703125" customWidth="1"/>
+    <col min="43" max="43" width="17" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.140625" customWidth="1"/>
+    <col min="45" max="45" width="14.5703125" customWidth="1"/>
+    <col min="46" max="46" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="21.7109375" customWidth="1"/>
+    <col min="48" max="48" width="11" customWidth="1"/>
+    <col min="49" max="49" width="16.42578125" customWidth="1"/>
+    <col min="50" max="50" width="14.140625" customWidth="1"/>
+    <col min="52" max="52" width="14.5703125" customWidth="1"/>
+    <col min="53" max="53" width="18.140625" customWidth="1"/>
+    <col min="54" max="55" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="18.7109375" customWidth="1"/>
+    <col min="57" max="57" width="22.140625" customWidth="1"/>
+    <col min="58" max="58" width="21.140625" customWidth="1"/>
+    <col min="59" max="59" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="17.5703125" customWidth="1"/>
+    <col min="61" max="61" width="17.28515625" customWidth="1"/>
+    <col min="62" max="62" width="24.7109375" customWidth="1"/>
+    <col min="63" max="63" width="39.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:63">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -698,10 +881,10 @@
       <c r="N1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="9" t="s">
         <v>28</v>
       </c>
       <c r="Q1" s="11" t="s">
@@ -746,14 +929,107 @@
       <c r="AD1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AE1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AF1" s="9" t="s">
         <v>55</v>
       </c>
+      <c r="AG1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AQ1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT1" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU1" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV1" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AW1" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX1" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY1" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ1" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA1" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB1" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="BC1" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="BD1" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="BE1" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF1" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG1" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="BH1" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="BI1" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="BJ1" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="BK1" s="17" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" ht="16.5">
+    <row r="2" spans="1:63" ht="16.5">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -784,71 +1060,165 @@
       <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>21</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="Q2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="T2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="V2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="W2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="X2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Y2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="Z2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AA2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AB2" s="12" t="s">
+      <c r="AB2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AC2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AD2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AE2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AF2" s="1" t="s">
         <v>57</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP2" s="1">
+        <f>AN2-AO2</f>
+        <v>200</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV2" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="AW2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AX2" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY2" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AZ2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="BA2" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="BB2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="BC2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="BD2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE2" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="BF2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="BG2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="BH2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="BI2" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="BJ2" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="BK2" s="12" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Airnegative.xlsx
+++ b/Excel/Airnegative.xlsx
@@ -333,7 +333,7 @@
     <t>Fopcustomer</t>
   </si>
   <si>
-    <t>KWC668_1 -  Glaxo Saudi Arabia Ltd -FAC_1</t>
+    <t>Jordan</t>
   </si>
 </sst>
 </file>
@@ -770,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BH1" workbookViewId="0">
-      <selection activeCell="BL12" sqref="BL12"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="AT13" sqref="AT13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Excel/Airnegative.xlsx
+++ b/Excel/Airnegative.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="118">
   <si>
     <t>Username</t>
   </si>
@@ -334,6 +334,42 @@
   </si>
   <si>
     <t>Jordan</t>
+  </si>
+  <si>
+    <t>Tickectdigitmorethan10digit</t>
+  </si>
+  <si>
+    <t>92102912011</t>
+  </si>
+  <si>
+    <t>BSPPayableAgent</t>
+  </si>
+  <si>
+    <t>NonPayableAgent</t>
+  </si>
+  <si>
+    <t>AE - BPS - Comp1</t>
+  </si>
+  <si>
+    <t>Air India</t>
+  </si>
+  <si>
+    <t>AatdDate1</t>
+  </si>
+  <si>
+    <t>AatdDate2</t>
+  </si>
+  <si>
+    <t>AatdDate3</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>2021</t>
   </si>
 </sst>
 </file>
@@ -433,7 +469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -474,6 +510,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -768,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK2"/>
+  <dimension ref="A1:BQ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
-      <selection activeCell="AT13" sqref="AT13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -836,9 +877,15 @@
     <col min="61" max="61" width="17.28515625" customWidth="1"/>
     <col min="62" max="62" width="24.7109375" customWidth="1"/>
     <col min="63" max="63" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="27.5703125" customWidth="1"/>
+    <col min="65" max="65" width="17.85546875" customWidth="1"/>
+    <col min="66" max="66" width="26.85546875" customWidth="1"/>
+    <col min="67" max="67" width="16.42578125" customWidth="1"/>
+    <col min="68" max="68" width="16" customWidth="1"/>
+    <col min="69" max="69" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63">
+    <row r="1" spans="1:69">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1028,8 +1075,26 @@
       <c r="BK1" s="17" t="s">
         <v>104</v>
       </c>
+      <c r="BL1" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="BM1" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="BN1" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="BO1" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="BP1" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="BQ1" s="20" t="s">
+        <v>114</v>
+      </c>
     </row>
-    <row r="2" spans="1:63" ht="16.5">
+    <row r="2" spans="1:69" ht="16.5">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1219,6 +1284,24 @@
       </c>
       <c r="BK2" s="12" t="s">
         <v>105</v>
+      </c>
+      <c r="BL2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO2" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="BP2" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="BQ2" s="18" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
